--- a/pred_ohlcv/54_21/2020-01-16 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3897900.007142835</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4177553.619242835</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5035540.485642835</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-5165839.998042835</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4586473.131642835</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4338417.804142836</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4673141.071042836</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4761048.380642836</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3973532.895842836</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4377181.635642836</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4372199.290242836</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4372199.290242836</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5200325.769142836</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5408097.556142837</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8301890.778142837</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-11521530.67314828</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-11500881.15244828</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-11257596.63954828</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-10936716.69384828</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-11209210.67556179</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-11085259.44926179</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10925025.18736179</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-10920937.12476179</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-10528259.20666179</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-10535952.22406179</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-10536768.39926179</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-10220918.42686179</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10521677.08706179</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-10304170.00716179</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-10036928.58286179</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-9948687.582861794</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-9800879.945514271</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-9820720.318414271</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9300969.577210894</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9300969.577210894</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9278307.149310894</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-9322525.156810895</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-9284346.196610894</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-9450064.596110893</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-9360269.796610894</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-9346447.736510893</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-9409264.039610893</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-9414633.419710893</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-10220644.07331089</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-10242552.74231089</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10299911.94051089</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-10280325.04361089</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-10279569.75131089</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-10093031.60321089</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-10093141.74811089</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-10100600.05501089</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-9908294.954710893</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-9986998.740010893</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-10247860.79571089</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-10456925.09001089</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-11484717.11011089</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-35756271.55379688</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-35706188.44119688</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-35720997.79449689</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-35571048.16338762</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-35464662.45138762</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-35332318.14027029</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-35736717.82072632</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-36087429.27842632</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-36270029.58032632</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-35452015.90282633</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-35602652.67442633</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-35753403.55582633</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-35828638.46572633</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XSR ohlcv.xlsx
@@ -4916,7 +4916,7 @@
         <v>-11521530.67314828</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-11500881.15244828</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-11257596.63954828</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-10936716.69384828</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-11209210.67556179</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-10803089.50786179</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-11085259.44926179</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10925025.18736179</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-10920937.12476179</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-10528259.20666179</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-10535952.22406179</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-10536768.39926179</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-10220918.42686179</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-10521677.08706179</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-10304170.00716179</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-10036928.58286179</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-9948687.582861794</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-9820720.318414271</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9300969.577210894</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-9322525.156810895</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-9284346.196610894</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-9450064.596110893</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-9360269.796610894</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-9346447.736510893</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-9249644.138010893</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-9409264.039610893</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-9414633.419710893</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-9443295.856810894</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-10070301.65451089</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-10260285.06031089</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-10220644.07331089</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-10242552.74231089</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-10299911.94051089</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-10280325.04361089</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-10279432.04361089</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-10279569.75131089</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-10199881.43371089</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-10093031.60321089</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-10093141.74811089</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-10100600.05501089</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-9908294.954710893</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-9986998.740010893</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-10247860.79571089</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-10456925.09001089</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-10457604.64601089</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-10976952.27321089</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-35706271.55379688</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-35720997.79449689</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-35787481.00958762</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-35869763.59468762</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-35982453.84838762</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-35982342.84838762</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-36071331.58958762</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-35571048.16338762</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-35464662.45138762</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-35405690.12508762</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-35091813.40408761</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-35129735.98148761</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-35088048.72287147</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-35070866.94028644</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-35008510.09688644</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-35007511.09688644</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-35006512.09688644</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-34952147.11758644</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-35014852.5953703</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-35014727.1586703</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-35330865.4612703</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-35332318.14027029</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-35736717.82072632</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-36087429.27842632</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-36270029.58032632</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-36228350.13132632</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-36102871.31042632</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-36013611.72382632</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-35694204.54482632</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-35033921.62562632</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-34920766.83292632</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-34705330.40112632</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-34600423.80562632</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-34600423.80562632</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-34618337.66222632</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-34735075.96172632</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-35091316.10582633</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-35283357.25962633</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-35286797.70862633</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-35452015.90282633</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-35602652.67442633</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-35753403.55582633</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-35667851.20282633</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-35828638.46572633</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
